--- a/pred_ohlcv/54_21/2019-11-02 MXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 MXC ohlcv.xlsx
@@ -1042,7 +1042,7 @@
         <v>-4532243.263746073</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>19283025.95355393</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-3845212.329746075</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-23093935.07494608</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-4098271.073646076</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-17100972.44274608</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-15044310.66254608</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-15044336.03514608</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-15044336.03514608</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>7613904.526153922</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>43756449.26745392</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>43756449.26745392</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>43465353.95755392</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>42020149.80431904</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>41648896.74261904</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>41659127.96931904</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>41648154.06681903</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>41648154.06681903</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>41305852.71781904</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>41329492.93373326</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>41338073.93373326</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>41441647.93373326</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>41439452.93373326</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>41778320.71033326</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>42023320.71033326</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>42022892.02283326</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>42022677.67913326</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>42103320.51743326</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>41984487.66493326</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>42761176.65603326</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>42199549.75623325</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>42193475.36373325</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>42389156.01433326</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>42389156.01433326</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>43444723.85933066</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>43443888.63043066</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>43303546.94583066</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>43483546.94583066</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>43383333.39293066</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>40735620.56333066</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>40835620.56333066</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>40835492.43153065</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>41601131.97523198</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>41563085.64166201</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>41562886.98326201</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>41459314.45296201</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>39384147.83106202</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>38957037.03416202</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>38918026.76806203</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>38908026.76806203</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>40834443.9337986</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>43895595.9007986</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>37657048.68889859</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>27879456.97449859</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>23109569.84509859</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>29320301.67779859</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>18864419.58199859</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>27352673.97489859</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>37657002.67189859</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>42029747.89139859</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>36992029.89769859</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>39293829.75199859</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>50451407.68419859</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>41646710.89259858</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>49579871.13329858</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>59629145.36739858</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>59629145.36739858</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>70163121.58259858</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>61732505.76849858</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>65959299.52809858</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>72322461.87279858</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>78120792.69699858</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>75764421.94539858</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>75664421.94539858</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>75724421.94539858</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>75924421.94539858</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-02 MXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 MXC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-3507369.277511541</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-3284710.937511541</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-3239873.639611541</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-3239873.639611541</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-3237501.440811541</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-2902251.401011541</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-4536498.137346073</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-4532243.263746073</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-23093935.07494608</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-4098271.073646076</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-17100972.44274608</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-15044310.66254608</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-15044336.03514608</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-15044336.03514608</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>7613904.526153922</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-13735379.33004608</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>59356486.51725392</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>41648154.06681903</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>39384147.83106202</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>38957027.03416202</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>38957037.03416202</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>36992029.89769859</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>39293829.75199859</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>50451407.68419859</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>41646710.89259858</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>49579871.13329858</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>61732505.76849858</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>65959299.52809858</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>72322461.87279858</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>78120792.69699858</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>75764421.94539858</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>75664421.94539858</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>75724421.94539858</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>75924421.94539858</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
